--- a/27 - Tepelné čerpadlo/Měření_tepelné čerpadlo.xlsx
+++ b/27 - Tepelné čerpadlo/Měření_tepelné čerpadlo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\27 - Tepelné čerpadlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE6FF8-E60E-485C-9EEA-25ED52136F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD0985E-ABEE-4734-B54B-306F485A38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F3D3C57-D5BE-4AFC-9A56-9B5D642FCA07}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Laboratorní podmínky</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>delta T1</t>
+  </si>
+  <si>
+    <t>delta T2</t>
+  </si>
+  <si>
+    <t>Topný faktor</t>
   </si>
 </sst>
 </file>
@@ -165,20 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -519,7 +523,7 @@
   <dimension ref="B2:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,11 +566,6 @@
         <v>981</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -575,25 +574,25 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
@@ -607,13 +606,13 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.05</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J10">
@@ -663,7 +662,7 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>21.4</v>
       </c>
       <c r="G13">
@@ -699,7 +698,7 @@
       <c r="E14">
         <v>3.4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>21.4</v>
       </c>
       <c r="G14">
@@ -723,7 +722,7 @@
       <c r="E15">
         <v>3.3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>20.7</v>
       </c>
       <c r="G15">
@@ -732,6 +731,12 @@
       <c r="H15">
         <f t="shared" si="0"/>
         <v>2.9000000000000021</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -747,7 +752,7 @@
       <c r="E16">
         <v>3.3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>19.5</v>
       </c>
       <c r="G16">
@@ -756,6 +761,14 @@
       <c r="H16">
         <f t="shared" si="0"/>
         <v>5.5</v>
+      </c>
+      <c r="J16">
+        <f>G37-G14</f>
+        <v>21.900000000000002</v>
+      </c>
+      <c r="K16">
+        <f>(J10*L10*J16)/(C38*I13)</f>
+        <v>2.0257273668060365</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -771,7 +784,7 @@
       <c r="E17">
         <v>3.2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>18.3</v>
       </c>
       <c r="G17">
@@ -795,7 +808,7 @@
       <c r="E18">
         <v>3.2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>17.3</v>
       </c>
       <c r="G18">
@@ -819,7 +832,7 @@
       <c r="E19">
         <v>3.2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>16.100000000000001</v>
       </c>
       <c r="G19">
@@ -843,7 +856,7 @@
       <c r="E20">
         <v>3.1</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20">
         <v>15.2</v>
       </c>
       <c r="G20">
@@ -867,7 +880,7 @@
       <c r="E21">
         <v>2.9</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>14</v>
       </c>
       <c r="G21">
@@ -891,7 +904,7 @@
       <c r="E22">
         <v>2.7</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>13.1</v>
       </c>
       <c r="G22">
@@ -915,7 +928,7 @@
       <c r="E23">
         <v>2.6</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>12.1</v>
       </c>
       <c r="G23">
@@ -939,7 +952,7 @@
       <c r="E24">
         <v>2.6</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>11.3</v>
       </c>
       <c r="G24">
@@ -963,7 +976,7 @@
       <c r="E25">
         <v>2.4</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>10.5</v>
       </c>
       <c r="G25">
@@ -987,7 +1000,7 @@
       <c r="E26">
         <v>2.4</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>9.5</v>
       </c>
       <c r="G26">
@@ -1011,7 +1024,7 @@
       <c r="E27">
         <v>2.4</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
         <v>8.8000000000000007</v>
       </c>
       <c r="G27">
@@ -1035,7 +1048,7 @@
       <c r="E28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>8.4</v>
       </c>
       <c r="G28">
@@ -1059,7 +1072,7 @@
       <c r="E29">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>7.5</v>
       </c>
       <c r="G29">
@@ -1083,7 +1096,7 @@
       <c r="E30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>7</v>
       </c>
       <c r="G30">
@@ -1107,7 +1120,7 @@
       <c r="E31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>6.2</v>
       </c>
       <c r="G31">
@@ -1131,7 +1144,7 @@
       <c r="E32">
         <v>2.1</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32">
         <v>5.7</v>
       </c>
       <c r="G32">
@@ -1155,7 +1168,7 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33">
         <v>5.3</v>
       </c>
       <c r="G33">
@@ -1179,7 +1192,7 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>4.8</v>
       </c>
       <c r="G34">
@@ -1203,7 +1216,7 @@
       <c r="E35">
         <v>1.9</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>4.2</v>
       </c>
       <c r="G35">
@@ -1227,7 +1240,7 @@
       <c r="E36">
         <v>1.9</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>3.7</v>
       </c>
       <c r="G36">
@@ -1251,7 +1264,7 @@
       <c r="E37">
         <v>1.8</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>3.3</v>
       </c>
       <c r="G37">

--- a/27 - Tepelné čerpadlo/Měření_tepelné čerpadlo.xlsx
+++ b/27 - Tepelné čerpadlo/Měření_tepelné čerpadlo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\27 - Tepelné čerpadlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD0985E-ABEE-4734-B54B-306F485A38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ACDC08-5A2C-402E-ADEA-BDD8EC399A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6F3D3C57-D5BE-4AFC-9A56-9B5D642FCA07}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Laboratorní podmínky</t>
   </si>
@@ -113,13 +113,19 @@
     <t>hmotnost 4l vody</t>
   </si>
   <si>
-    <t>delta T1</t>
-  </si>
-  <si>
-    <t>delta T2</t>
-  </si>
-  <si>
     <t>Topný faktor</t>
+  </si>
+  <si>
+    <t>delta T1 / K</t>
+  </si>
+  <si>
+    <t>delta T2 / k</t>
+  </si>
+  <si>
+    <t>Delta T1</t>
+  </si>
+  <si>
+    <t>Delta T2</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L96"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,14 +543,15 @@
     <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="26.21875" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -555,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>23.9</v>
       </c>
@@ -566,26 +573,26 @@
         <v>981</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -605,7 +612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
@@ -626,7 +633,7 @@
         <v>3.988</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -643,13 +650,13 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -677,7 +684,7 @@
         <v>1380</v>
       </c>
       <c r="J13">
-        <f>F14-F37</f>
+        <f>(F14-F37)</f>
         <v>18.099999999999998</v>
       </c>
       <c r="K13">
@@ -685,7 +692,7 @@
         <v>1.6742312940269064</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -708,8 +715,20 @@
         <f t="shared" ref="H14:H37" si="0">G14-F14</f>
         <v>0.90000000000000213</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -733,13 +752,29 @@
         <v>2.9000000000000021</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <f>(4180*4*($F$14-F15))/($C$38*((B15-$B$14)*60))</f>
+        <v>1.4937145044987541</v>
+      </c>
+      <c r="M15">
+        <f>$F$14-F15</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="N15">
+        <f>G15-$G$14</f>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="O15">
+        <f>(4180*4*(G15-$G$14))/($C$38*((B15-$B$14)*60))</f>
+        <v>2.7740412226405478</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -763,15 +798,31 @@
         <v>5.5</v>
       </c>
       <c r="J16">
-        <f>G37-G14</f>
+        <f>(G37-G14)</f>
         <v>21.900000000000002</v>
       </c>
       <c r="K16">
         <f>(J10*L10*J16)/(C38*I13)</f>
         <v>2.0257273668060365</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f t="shared" ref="L16:L38" si="1">(4180*4*($F$14-F16))/($C$38*((B16-$B$14)*60))</f>
+        <v>2.0271839703911669</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M37" si="2">$F$14-F16</f>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N37" si="3">G16-$G$14</f>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O37" si="4">(4180*4*(G16-$G$14))/($C$38*((B16-$B$14)*60))</f>
+        <v>2.8807351158190277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4</v>
       </c>
@@ -794,8 +845,24 @@
         <f t="shared" si="0"/>
         <v>8.0999999999999979</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>2.2050071256886379</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>3.0999999999999979</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999979</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>2.9162997468785217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>5</v>
       </c>
@@ -818,8 +885,24 @@
         <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>2.1872248101588911</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999979</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>2.827388169229788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -842,8 +925,24 @@
         <f t="shared" si="0"/>
         <v>12.799999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>2.2619105353838287</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>2.8167187799119384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>7</v>
       </c>
@@ -866,8 +965,24 @@
         <f t="shared" si="0"/>
         <v>15.100000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2.2050071256886392</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>2.8451704847595347</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>8</v>
       </c>
@@ -890,8 +1005,24 @@
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>2.2558137414879162</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>2.8045251921201126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>9</v>
       </c>
@@ -914,8 +1045,24 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>2.2138982834535126</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>8.2999999999999989</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>10.3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>2.7473677493459254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>10</v>
       </c>
@@ -938,8 +1085,24 @@
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>2.2050071256886388</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>11.3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>2.6792022064818952</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>11</v>
       </c>
@@ -962,8 +1125,24 @@
         <f t="shared" si="0"/>
         <v>23.400000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>2.1552166422053469</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>10.099999999999998</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>12.400000000000002</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>2.6460085508263678</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>12</v>
       </c>
@@ -986,8 +1165,24 @@
         <f t="shared" si="0"/>
         <v>25.1</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>2.1144789739008356</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>13.3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>2.580052325952396</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>13</v>
       </c>
@@ -1010,8 +1205,24 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>2.1160955480399037</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>14.2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>2.5250888052240867</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>14</v>
       </c>
@@ -1034,8 +1245,24 @@
         <f t="shared" si="0"/>
         <v>28.599999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>2.0682200831521231</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>12.599999999999998</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>15.099999999999998</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>2.4785812107616714</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>15</v>
       </c>
@@ -1058,8 +1285,24 @@
         <f t="shared" si="0"/>
         <v>29.9</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1.9814580161718185</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>12.999999999999998</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>15.999999999999996</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>2.4387175583653149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>16</v>
       </c>
@@ -1082,8 +1325,24 @@
         <f t="shared" si="0"/>
         <v>31.6</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>1.9773934869078762</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>13.899999999999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>2.3899432071980091</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>17</v>
       </c>
@@ -1106,8 +1365,24 @@
         <f t="shared" si="0"/>
         <v>32.9</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>1.9204900772126856</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>2.3472656499266158</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>18</v>
       </c>
@@ -1130,8 +1405,24 @@
         <f t="shared" si="0"/>
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>1.9079378544858057</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>15.2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>18.2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>2.2845045362922147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>19</v>
       </c>
@@ -1154,8 +1445,24 @@
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>1.8612156921135288</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>15.7</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>2.240571756748134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>20</v>
       </c>
@@ -1178,8 +1485,24 @@
         <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>1.8081807159721774</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>16.099999999999998</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>2.2012634803139552</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>21</v>
       </c>
@@ -1202,8 +1525,24 @@
         <f t="shared" si="0"/>
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>1.7711186267628098</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>16.599999999999998</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>20.2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>2.1552166422053474</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>22</v>
       </c>
@@ -1226,8 +1565,24 @@
         <f t="shared" si="0"/>
         <v>38.9</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>1.7477475834951426</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>17.2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>20.8</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>2.1135552172499401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>23</v>
       </c>
@@ -1250,8 +1605,24 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>1.7168017356901282</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>17.7</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>21.3</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>2.0659817497287984</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>24</v>
       </c>
@@ -1274,19 +1645,35 @@
         <f t="shared" si="0"/>
         <v>40.900000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>1.6792691013308989</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>18.099999999999998</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>21.900000000000002</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>2.0318228353119725</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>AVERAGEA(C14:C37)</f>
         <v>130.59166666666667</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -1305,7 +1692,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>2</v>
       </c>
@@ -1316,7 +1703,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>3</v>
       </c>
@@ -1327,7 +1714,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>4</v>
       </c>
@@ -1338,7 +1725,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>5</v>
       </c>
@@ -1349,7 +1736,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>6</v>
       </c>
@@ -1360,7 +1747,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
